--- a/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>32,19</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>38,72</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>33,22</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>34,22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>41,92</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35,47</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>33,16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>40,35</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>34,32</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,06; 42,49</t>
+          <t>29,09; 36,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,96; 37,07</t>
+          <t>35,14; 42,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,8; 45,91</t>
+          <t>30,75; 39,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,4; 39,36</t>
+          <t>38,17; 46,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>37,67; 43,23</t>
+          <t>30,66; 36,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,06; 36,92</t>
+          <t>37,52; 43,23</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>37,51</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>35,48</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>37,29</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>34,16</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>39,84</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>33,7</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>36,03</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>37,99</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>35,6</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,42; 41,49</t>
+          <t>32,4; 42,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,43; 41,86</t>
+          <t>30,47; 40,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,21; 45,31</t>
+          <t>30,43; 38,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,52; 37,42</t>
+          <t>35,41; 45,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,71; 41,93</t>
+          <t>33,03; 39,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,13; 38,34</t>
+          <t>34,47; 41,83</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>38,9</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>27,67</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>34,61</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>23,22</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>17,43</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>37,48</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>23,85</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,43</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,16; 35,53</t>
+          <t>34,19; 43,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,1; 38,59</t>
+          <t>22,04; 34,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 35,42</t>
+          <t>18,01; 28,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,34; 24,63</t>
+          <t>10,9; 33,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 30,13</t>
+          <t>30,9; 40,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,13; 35,57</t>
+          <t>19,5; 30,01</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>36,14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>32,79</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>35,89</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,88</t>
+          <t>32,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,69</t>
+          <t>28,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,86</t>
+          <t>34,33</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,91</t>
+          <t>30,88</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,92; 37,79</t>
+          <t>32,73; 41,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,08; 39,31</t>
+          <t>28,56; 37,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 34,42</t>
+          <t>29,46; 37,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,3; 35,25</t>
+          <t>24,27; 34,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,66</t>
+          <t>31,77; 37,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,92; 36,24</t>
+          <t>27,62; 34,4</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>35,15</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>33,26</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>36,64</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>36,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>32,16</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>37,38</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>36,01</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>32,56</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>37,07</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,55; 43,94</t>
+          <t>29,08; 42,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,49; 41,94</t>
+          <t>24,91; 44,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,1; 40,47</t>
+          <t>31,37; 45,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 45,66</t>
+          <t>24,87; 39,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,8; 38,46</t>
+          <t>32,21; 42,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,15; 42,57</t>
+          <t>27,32; 39,35</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>5,99</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,94</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>8,66</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,72</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>3,33; 9,95</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 13,52</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>5,57; 13,87</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 10,77</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,15; 10,74</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,79</t>
+          <t>36,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35,46</t>
+          <t>32,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,84</t>
+          <t>33,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,52</t>
+          <t>32,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,82</t>
+          <t>35,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,56</t>
+          <t>32,91</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,66; 35,25</t>
+          <t>33,98; 38,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,9; 37,11</t>
+          <t>30,7; 35,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,54; 35,64</t>
+          <t>31,95; 36,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,97; 35,91</t>
+          <t>30,5; 35,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,29; 34,57</t>
+          <t>33,73; 37,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,44; 35,88</t>
+          <t>31,31; 34,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio para desplazarse al trabajo en minutos</t>
+          <t>Tiempo medio para desplazarse al trabajo en minutos (tasa de respuesta: 91,11%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,09; 36,24</t>
+          <t>28,88; 36,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,14; 42,39</t>
+          <t>35,36; 42,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,75; 39,12</t>
+          <t>30,76; 38,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,17; 46,5</t>
+          <t>37,75; 45,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,66; 36,26</t>
+          <t>30,59; 36,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,52; 43,23</t>
+          <t>37,66; 43,06</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,4; 42,8</t>
+          <t>33,22; 43,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 40,91</t>
+          <t>30,49; 41,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,43; 38,11</t>
+          <t>30,72; 38,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,41; 45,08</t>
+          <t>35,44; 45,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,03; 39,3</t>
+          <t>33,0; 39,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,47; 41,83</t>
+          <t>34,77; 42,13</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,19; 43,02</t>
+          <t>33,86; 42,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,04; 34,95</t>
+          <t>21,77; 35,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,01; 28,99</t>
+          <t>17,58; 28,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 33,22</t>
+          <t>10,84; 32,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,9; 40,14</t>
+          <t>31,23; 40,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,5; 30,01</t>
+          <t>19,1; 29,68</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,73; 41,34</t>
+          <t>32,81; 41,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 37,91</t>
+          <t>28,32; 38,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,46; 37,35</t>
+          <t>29,0; 37,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,27; 34,58</t>
+          <t>24,17; 34,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 37,5</t>
+          <t>31,83; 37,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 34,4</t>
+          <t>27,5; 34,56</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,08; 42,78</t>
+          <t>29,27; 42,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,91; 44,26</t>
+          <t>25,22; 44,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,37; 45,15</t>
+          <t>31,55; 44,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,87; 39,72</t>
+          <t>25,56; 40,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,21; 42,21</t>
+          <t>32,22; 41,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,32; 39,35</t>
+          <t>26,85; 38,64</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,95</t>
+          <t>3,24; 10,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,57; 13,87</t>
+          <t>5,38; 13,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 10,74</t>
+          <t>5,3; 10,98</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,98; 38,65</t>
+          <t>34,05; 38,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,7; 35,45</t>
+          <t>30,56; 35,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,95; 36,46</t>
+          <t>31,98; 36,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,5; 35,06</t>
+          <t>30,72; 35,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,73; 37,15</t>
+          <t>33,66; 37,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,31; 34,62</t>
+          <t>31,29; 34,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Clase-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,19</t>
+          <t>32,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,22</t>
+          <t>34,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,16</t>
+          <t>33,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,88; 36,09</t>
+          <t>29,24; 36,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 38,81</t>
+          <t>30,5; 39,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,59; 36,11</t>
+          <t>30,71; 36,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,51</t>
+          <t>38,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,16</t>
+          <t>33,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,03</t>
+          <t>36,46</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,22; 43,35</t>
+          <t>34,37; 44,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,72; 38,24</t>
+          <t>30,6; 38,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,0; 39,29</t>
+          <t>33,42; 39,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,9</t>
+          <t>36,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,22</t>
+          <t>23,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>37,48</t>
+          <t>33,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,86; 42,84</t>
+          <t>31,51; 42,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 28,36</t>
+          <t>17,87; 28,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,23; 40,04</t>
+          <t>28,49; 37,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,14</t>
+          <t>37,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,32</t>
+          <t>32,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,33</t>
+          <t>35,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,81; 41,37</t>
+          <t>34,18; 42,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,0; 37,34</t>
+          <t>29,25; 37,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,83; 37,56</t>
+          <t>32,64; 37,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,15</t>
+          <t>35,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,45</t>
+          <t>37,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,01</t>
+          <t>36,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,27; 42,95</t>
+          <t>30,33; 42,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,55; 44,5</t>
+          <t>33,76; 42,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,22; 41,98</t>
+          <t>33,28; 40,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,41</t>
+          <t>36,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,8</t>
+          <t>33,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,31</t>
+          <t>35,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,05; 38,69</t>
+          <t>34,0; 38,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,98; 36,67</t>
+          <t>31,98; 35,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,66; 37,22</t>
+          <t>33,59; 36,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
